--- a/Jupiter Session Processing and Analysis Notes.xlsx
+++ b/Jupiter Session Processing and Analysis Notes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236FD21-A1D4-41A5-A4E7-E5E8E779C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966677B-88E9-481A-BAD6-65F6DE4EBA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-110" windowWidth="17990" windowHeight="11020" xr2:uid="{05635B54-1AD3-49CD-8C06-A4005DAA2CD5}"/>
+    <workbookView xWindow="1320" yWindow="-110" windowWidth="17990" windowHeight="11020" tabRatio="307" xr2:uid="{05635B54-1AD3-49CD-8C06-A4005DAA2CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
   <si>
     <t>2020-07-20-0457_9-Jupiter-NoWV-NH3Abs656-0.9to1.1scale_MapFlattened-CM2_L360_MAP-BARE.png</t>
   </si>
@@ -51,27 +51,18 @@
     <t>N</t>
   </si>
   <si>
-    <t>Flattening</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Reprocess Date</t>
-  </si>
-  <si>
     <t>2020-09-14-0245_3-Jupiter-NH3Abs-647(long)over656(realigned)-scale0.9to1.1_CM2_L360_MAxP-BARE.png</t>
   </si>
   <si>
     <t>This session needs to be discarded due to poor data quality. The short exposure 647CNT data is poorly focused and has obvious flat field artifacts. The longer exposures are unfocused with a PSF that's pretty uncorrectable. The appearance of NH3 features is an artifact of the differential focus of the 656HIA (well focused) and the 647CNT data. Unfortunately, this seemed to show the NTBO-2 bright spot, but it was really an artifact of a well focused bright spot with a defocused bright spot.</t>
   </si>
   <si>
-    <t>Valid?</t>
-  </si>
-  <si>
     <t>2021-09-27-0312_1-Jupiter-NoWV-NH3AbsAvg(632+656)-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
   </si>
   <si>
@@ -84,24 +75,15 @@
     <t>2020-07-29-0413_4-Jupiter-NoWV-NH3Abs-647over656-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
   </si>
   <si>
-    <t>VERY bright local features just to the south of dark features. The map is unsharpend, but peak EW is !1.0nm!  Lowest EW is around 0.05nm. Incredible range.  There may be a little bit of depletion around the GRS, but it's not really clear.</t>
-  </si>
-  <si>
     <t>2021-07-08-1044_4-Jupiter-NoWV-NH3AbsAvg(656+632)-0.9to1.1Scale_CM2_L360_MAP-BARE.png</t>
   </si>
   <si>
     <t>Spectacular map. Shows strong enhancement associated with dark regions/plumes, clear depletion in the NEB and enhancement in the EZ, and also depletion in the GRS. IDEAL CANDIDATE FOR THE POSTER! MADE CUSTOM CODE CHANGES TO NORMALIZE ZONAL DIMMING</t>
   </si>
   <si>
-    <t>Exploration of barge enhancements. But also has GRS depletion. Nice NEB depletion. Also, overall southern hemisphere enhancement. MADE CUSTOM CODE CHANGES TO NORMALIZE ZONAL DIMMING</t>
-  </si>
-  <si>
     <t>Interesting NH3 enhancement at 0, 5N, but also a depletion coming down in latitude around 35deg. GRS shows signs of depletion with EW~0.45nm. Simple image flattening - not division by zonal average</t>
   </si>
   <si>
-    <t>EZ enhancement, but also all the way through the SEB 15S. NEB depletion is mild. Specific localized enhancements between 0 and 10N, associated with plume/dark feature</t>
-  </si>
-  <si>
     <t>2020-09-25-0242_1-Jupiter-NH3AbsAvg(672+656)-0.9to1.1scale.png</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>Ref WV</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>2020-09-13-0328_4-Jupiter-NH3Abs-647over656-0.9to1.1scale.png</t>
   </si>
   <si>
@@ -126,37 +105,9 @@
     <t>GRS?</t>
   </si>
   <si>
-    <r>
-      <t>2021-09-15-0349_0-Jupiter-NoWV-ClrSlp-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>656over632</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
-    </r>
-  </si>
-  <si>
     <t>2021-09-10-0414_7-Jupiter-NoWV-NH3AbsAvg(656+632)-0.9to1.1scale.png</t>
   </si>
   <si>
-    <t>High EWs. Maybe some enhancement around barges?</t>
-  </si>
-  <si>
     <t>2020-09-24-0250_0-Jupiter-NH3AbsAvg(672+656)-0.9to1.1scale.png</t>
   </si>
   <si>
@@ -167,6 +118,138 @@
   </si>
   <si>
     <t>25-15</t>
+  </si>
+  <si>
+    <t>2021-11-23-0136_2-Jupiter-DR-ST-NH3AbsAvg(656+632)-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
+  </si>
+  <si>
+    <t>20-15</t>
+  </si>
+  <si>
+    <t>Process Date</t>
+  </si>
+  <si>
+    <t>A good map based on CCD photometric observations.</t>
+  </si>
+  <si>
+    <t>2021-12-02-0029_4-Jupiter-noWV-NH3AbsAvg(632+656)-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2021-11-30-0118_9-Jupiter-noWV-NH3AbsAvg(656+632)_CM2_L360_MAP-BARE.png</t>
+  </si>
+  <si>
+    <t>45N-45S</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>Plate Scale</t>
+  </si>
+  <si>
+    <t>A fairly good map. Lots of NH3 absorption south of the equator. Zonal correction was tough and the best I could do was to use the entire latitudinal extent.</t>
+  </si>
+  <si>
+    <t>CMOS</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>This map has some problems due to vertical striping on the stacked images. Not sure of the source. The map may be usable, but zonal correction is somewhat problematic because it shows a sawtooth pattern in the NH3 absorption</t>
+  </si>
+  <si>
+    <t>Valid for Photometry</t>
+  </si>
+  <si>
+    <t>Valid for Maps</t>
+  </si>
+  <si>
+    <t>Valid for Profiles</t>
+  </si>
+  <si>
+    <t>2021-09-15-0349_0-Jupiter-NoWV-NH3AbsAvg(656+632)-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
+  </si>
+  <si>
+    <t>Exploration of barge enhancements. But also has GRS depletion. Nice NEB depletion. Also, overall southern hemisphere enhancement. Actually have just an edge of the GRS.</t>
+  </si>
+  <si>
+    <t>2021-12-03-0030_9-Jupiter-NoWV-NH3AbsAvg(632+656)-0.9to1.1scale_CM2_L360_MAP-BARE.png</t>
+  </si>
+  <si>
+    <t>This is a good map, but has minor problems due to vertical striping. I'm not sure if there's a camera problem beginning to manifest itself.</t>
+  </si>
+  <si>
+    <t>25-15* Could do45--45?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High EWs. </t>
+  </si>
+  <si>
+    <t>2021-10-22-0316_3-Jupiter-NoWV-NH3AbsAvg(656_632)-0.9to1.1scale.png</t>
+  </si>
+  <si>
+    <t>20-10</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A fair map. Europa is on the disk and definitely causeing an artifact. May be okay for profiles, but need to be explicit about artificial depression of NH3 EW in the EZ due to Europa. Also, shows significant enhancement of NH3 south of 30S which seems quite anomalous. Need to investigate further. Might this be an artifact of zone correction?</t>
+  </si>
+  <si>
+    <t>CM2</t>
+  </si>
+  <si>
+    <t>45--45</t>
+  </si>
+  <si>
+    <t>A fair map. Contamination from Ganymede's shadow is significant. May be able to use for profiles if that effect is specifically addressed. Zonal correction is a bit problematic</t>
+  </si>
+  <si>
+    <t>2021-10-19-0405_6-Jupiter-NoWV-NH3AbsAvg(632+656)-0.9to1.1scale.png</t>
+  </si>
+  <si>
+    <t>2021-10-17-0405_0-Jupiter-NoWV-NH3AbsAvg(656+632)-0.9to1.1scale.png</t>
+  </si>
+  <si>
+    <t>Somewhat problematic NH3Abs map. Probably needs further investigation on alignment. While the color slope appears to be pretty sharp, the NH3Abs map has little detail and a broad, overly strong enhancement around the CM south of the EZ.</t>
+  </si>
+  <si>
+    <t>20-13, Maybe try 45--45</t>
+  </si>
+  <si>
+    <t>DateUT</t>
+  </si>
+  <si>
+    <t>FlatField</t>
+  </si>
+  <si>
+    <t>ZoneCorr</t>
+  </si>
+  <si>
+    <t>Need metadata file!</t>
+  </si>
+  <si>
+    <t>VERY strong northern EZ enhancements at 275 and 309 CM2 longitudes. The map is unsharpend, but peak EW is !1.0nm!  Lowest EW is around 0.05nm. Incredible range.  There may be a little bit of depletion around the GRS, but it's not really clear.</t>
+  </si>
+  <si>
+    <t>EZ enhancement at 30 and 61 CM2 longitude. Also all the way through the SEB 15S. NEB depletion is mild. Specific localized enhancements between 0 and 10N, associated with plume/dark feature</t>
+  </si>
+  <si>
+    <t>Very strong northern EZ enhancements at 103 and 162 CM2 longitudes. The 103 enhancement could be the same as the 105 enhancement on 7/20 and associated with the same plume and dark feature complex.</t>
+  </si>
+  <si>
+    <t>EZ enhancement at 259 and 297 CM2 longitude.</t>
+  </si>
+  <si>
+    <t>2020-07-30-0515_7-Jupiter-NoWV-NH3Abs656-0.9to1.1scale.png</t>
+  </si>
+  <si>
+    <t>2020-07-31-0454_6-Jupiter-NoWV-NH3Abs656-0.9to1.1scale.png</t>
   </si>
 </sst>
 </file>
@@ -185,13 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +276,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -208,12 +289,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,23 +338,38 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,11 +398,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,347 +716,1148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3155B5-1B77-468F-93F8-11D564BBF4E2}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.36328125" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="2"/>
-    <col min="7" max="7" width="50.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="5.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="8.7265625" style="5"/>
+    <col min="8" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="2"/>
+    <col min="12" max="12" width="50.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12" style="7" customWidth="1"/>
+    <col min="14" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>44032</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>656</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="7">
+        <v>44538</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <v>44041</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>656</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2">
+        <v>307</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44538</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <v>44042</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4">
+        <v>656</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2">
+        <v>135</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="7">
+        <v>44577</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>44043</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
+        <v>656</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2">
+        <v>272</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="7">
+        <v>44577</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>44076</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>44077</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>44078</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>44087</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>656</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44541</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <v>44088</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>656</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7">
+        <v>44538</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>44089</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
+        <v>44098</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C12" s="10">
+        <v>672</v>
+      </c>
+      <c r="D12" s="10">
+        <v>656</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="2">
+        <v>182</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44542</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <v>44099</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10">
+        <v>672</v>
+      </c>
+      <c r="D13" s="10">
+        <v>656</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7">
+        <v>44541</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>44111</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>44112</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="17">
+        <v>44478</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="17">
+        <v>44369</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17">
+        <v>44385</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13">
+        <v>656</v>
+      </c>
+      <c r="D18" s="13">
+        <v>632</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2">
+        <v>354</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>44538</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
+        <v>44396</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="H19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="17">
+        <v>44397</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13">
+        <v>656</v>
+      </c>
+      <c r="D20" s="13">
+        <v>632</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2">
+        <v>13</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="7">
+        <v>44538</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="17">
+        <v>44420</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="17">
+        <v>44425</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="H22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>44438</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
+        <v>44444</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="17">
+        <v>44445</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="17">
+        <v>44449</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="13">
+        <v>656</v>
+      </c>
+      <c r="D26" s="13">
+        <v>632</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>44541</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="17">
+        <v>44452</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="17">
+        <v>44454</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="12">
+        <v>656</v>
+      </c>
+      <c r="D28" s="12">
+        <v>632</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="2">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="7">
+        <v>44539</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="17">
+        <v>44458</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="H29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
+        <v>44459</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="H30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="17">
+        <v>44462</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="H31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="17">
+        <v>44465</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="H32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="17">
+        <v>44466</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="13">
+        <v>656</v>
+      </c>
+      <c r="D33" s="13">
+        <v>632</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="2">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="7">
+        <v>44538</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="17">
+        <v>44486</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="13">
+        <v>656</v>
+      </c>
+      <c r="D34" s="13">
+        <v>632</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="2">
+        <v>179</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>44575</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="17">
+        <v>44488</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="13">
+        <v>656</v>
+      </c>
+      <c r="D35" s="13">
+        <v>632</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="2">
+        <v>119</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="17">
+        <v>44491</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="13">
+        <v>656</v>
+      </c>
+      <c r="D36" s="13">
+        <v>632</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="2">
+        <v>180</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="7">
+        <v>44573</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="17">
+        <v>44522</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="H37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17">
+        <v>44523</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="13">
+        <v>656</v>
+      </c>
+      <c r="D38" s="13">
+        <v>632</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>656</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
-        <v>656</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>656</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="7">
-        <v>44541</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>656</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="H38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="2">
+        <v>244</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="7">
+        <v>44561</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="17">
+        <v>44530</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="13">
+        <v>656</v>
+      </c>
+      <c r="D39" s="13">
+        <v>632</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="2">
+        <v>203</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="7">
+        <v>44565</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="17">
+        <v>44532</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="10">
+        <v>656</v>
+      </c>
+      <c r="D40" s="10">
+        <v>632</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10">
-        <v>672</v>
-      </c>
-      <c r="C6" s="10">
-        <v>656</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44542</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>672</v>
-      </c>
-      <c r="C7" s="10">
-        <v>656</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44541</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11">
-        <v>656</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="H40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2">
+        <v>114</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="7">
+        <v>44566</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="17">
+        <v>44533</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="10">
+        <v>656</v>
+      </c>
+      <c r="D41" s="10">
         <v>632</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11">
-        <v>656</v>
-      </c>
-      <c r="C9" s="11">
-        <v>632</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11">
-        <v>656</v>
-      </c>
-      <c r="C10" s="11">
-        <v>632</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7">
-        <v>44541</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>44539</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>656</v>
-      </c>
-      <c r="C12" s="11">
-        <v>632</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44538</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
+      <c r="E41" s="10"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="2">
+        <v>265</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="7">
+        <v>44567</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I4" xr:uid="{7C3155B5-1B77-468F-93F8-11D564BBF4E2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
-      <sortCondition ref="A1:A4"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="I2:I100">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <autoFilter ref="A1:P41" xr:uid="{7C3155B5-1B77-468F-93F8-11D564BBF4E2}"/>
+  <conditionalFormatting sqref="N2:P125">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>